--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -2852,7 +2852,7 @@
         <v>8.58</v>
       </c>
       <c r="AJ21">
-        <v>0.1405263157894737</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
